--- a/ITI/SVCM/StructureDefinition-IHE.SVCM.Audit.Operation.xlsx
+++ b/ITI/SVCM/StructureDefinition-IHE.SVCM.Audit.Operation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T07:19:57-05:00</t>
+    <t>2022-10-21T14:30:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,10 +279,6 @@
     <t>Based on IHE-ATNA.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -301,7 +297,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -678,6 +674,10 @@
   </si>
   <si>
     <t>AuditEvent.outcomeDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Description of the event outcome</t>
@@ -2464,16 +2464,16 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2498,28 +2498,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2569,13 +2569,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2615,25 +2615,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2684,19 +2684,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2730,28 +2730,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2801,19 +2801,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2847,7 +2847,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2859,16 +2859,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2894,43 +2894,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2953,18 +2953,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2976,16 +2976,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3035,25 +3035,25 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>78</v>
@@ -3070,11 +3070,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3093,16 +3093,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3152,7 +3152,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -3170,7 +3170,7 @@
         <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>78</v>
@@ -3187,11 +3187,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3210,16 +3210,16 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3269,7 +3269,7 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -3281,13 +3281,13 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>78</v>
@@ -3304,11 +3304,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>78</v>
@@ -3388,7 +3388,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -3400,13 +3400,13 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>78</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3431,32 +3431,32 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -3466,73 +3466,73 @@
         <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="S11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W11" t="s" s="2">
+      <c r="X11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AK11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>80</v>
@@ -3560,20 +3560,20 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>78</v>
@@ -3598,29 +3598,29 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3632,19 +3632,19 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3655,52 +3655,52 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F13" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>78</v>
@@ -3715,14 +3715,14 @@
         <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3751,19 +3751,19 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3785,29 +3785,29 @@
         <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>78</v>
@@ -3817,70 +3817,70 @@
         <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="S14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W14" t="s" s="2">
+      <c r="X14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="AM14" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3891,7 +3891,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3902,7 +3902,7 @@
         <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>78</v>
@@ -3914,16 +3914,16 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3973,42 +3973,42 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4016,34 +4016,34 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -4092,42 +4092,42 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AL16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4138,28 +4138,28 @@
         <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -4185,55 +4185,55 @@
         <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AM17" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4255,19 +4255,19 @@
         <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>209</v>
@@ -4324,19 +4324,19 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>78</v>
@@ -4348,7 +4348,7 @@
         <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4379,7 +4379,7 @@
         <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>214</v>
@@ -4417,7 +4417,7 @@
         <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X19" t="s" s="2">
         <v>218</v>
@@ -4453,7 +4453,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>220</v>
@@ -4555,13 +4555,13 @@
         <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>226</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4570,7 +4570,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>235</v>
@@ -4604,7 +4604,7 @@
         <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>78</v>
@@ -4616,7 +4616,7 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>242</v>
@@ -4679,7 +4679,7 @@
         <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4731,16 +4731,16 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4802,7 +4802,7 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>78</v>
@@ -4842,13 +4842,13 @@
         <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>251</v>
@@ -4857,10 +4857,10 @@
         <v>252</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>78</v>
@@ -4921,13 +4921,13 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>78</v>
@@ -4955,7 +4955,7 @@
         <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>78</v>
@@ -5000,7 +5000,7 @@
         <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X24" t="s" s="2">
         <v>257</v>
@@ -5030,13 +5030,13 @@
         <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>259</v>
@@ -5155,7 +5155,7 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>78</v>
@@ -5189,16 +5189,16 @@
         <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>276</v>
@@ -5268,13 +5268,13 @@
         <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>281</v>
@@ -5308,7 +5308,7 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>78</v>
@@ -5320,7 +5320,7 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>287</v>
@@ -5385,13 +5385,13 @@
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>78</v>
@@ -5425,7 +5425,7 @@
         <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
@@ -5437,7 +5437,7 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>293</v>
@@ -5502,13 +5502,13 @@
         <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>78</v>
@@ -5539,19 +5539,19 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>299</v>
@@ -5618,16 +5618,16 @@
         <v>298</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>78</v>
@@ -5661,7 +5661,7 @@
         <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>78</v>
@@ -5736,13 +5736,13 @@
         <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>310</v>
@@ -5788,7 +5788,7 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>316</v>
@@ -5861,7 +5861,7 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>78</v>
@@ -5895,7 +5895,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -5907,7 +5907,7 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>324</v>
@@ -5942,7 +5942,7 @@
         <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X32" t="s" s="2">
         <v>327</v>
@@ -5972,13 +5972,13 @@
         <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -6012,7 +6012,7 @@
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -6087,13 +6087,13 @@
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>78</v>
@@ -6127,7 +6127,7 @@
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>78</v>
@@ -6139,7 +6139,7 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>242</v>
@@ -6202,7 +6202,7 @@
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6254,16 +6254,16 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6325,7 +6325,7 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>78</v>
@@ -6365,13 +6365,13 @@
         <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>251</v>
@@ -6380,10 +6380,10 @@
         <v>252</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>78</v>
@@ -6444,13 +6444,13 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>78</v>
@@ -6478,7 +6478,7 @@
         <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>78</v>
@@ -6490,7 +6490,7 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>339</v>
@@ -6557,13 +6557,13 @@
         <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>78</v>
@@ -6597,7 +6597,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>78</v>
@@ -6609,7 +6609,7 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>347</v>
@@ -6644,7 +6644,7 @@
         <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X38" t="s" s="2">
         <v>350</v>
@@ -6674,13 +6674,13 @@
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>78</v>
@@ -6761,7 +6761,7 @@
         <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X39" t="s" s="2">
         <v>218</v>
@@ -6797,7 +6797,7 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>78</v>
@@ -6830,10 +6830,10 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6909,7 +6909,7 @@
         <v>226</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6918,7 +6918,7 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>235</v>
@@ -6952,7 +6952,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>78</v>
@@ -6964,7 +6964,7 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>242</v>
@@ -7027,7 +7027,7 @@
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>78</v>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -7079,16 +7079,16 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7150,7 +7150,7 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>78</v>
@@ -7190,13 +7190,13 @@
         <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>251</v>
@@ -7205,10 +7205,10 @@
         <v>252</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>78</v>
@@ -7269,13 +7269,13 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>78</v>
@@ -7300,10 +7300,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>78</v>
@@ -7348,7 +7348,7 @@
         <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X44" t="s" s="2">
         <v>257</v>
@@ -7378,13 +7378,13 @@
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>259</v>
@@ -7503,7 +7503,7 @@
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>78</v>
@@ -7534,19 +7534,19 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>276</v>
@@ -7616,13 +7616,13 @@
         <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>281</v>
@@ -7656,7 +7656,7 @@
         <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>78</v>
@@ -7668,7 +7668,7 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>287</v>
@@ -7733,13 +7733,13 @@
         <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>78</v>
@@ -7773,7 +7773,7 @@
         <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7785,7 +7785,7 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>293</v>
@@ -7850,13 +7850,13 @@
         <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
@@ -7887,19 +7887,19 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>299</v>
@@ -7966,16 +7966,16 @@
         <v>298</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>78</v>
@@ -8009,7 +8009,7 @@
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>78</v>
@@ -8084,13 +8084,13 @@
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>310</v>
@@ -8136,7 +8136,7 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>316</v>
@@ -8209,7 +8209,7 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
@@ -8255,7 +8255,7 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>324</v>
@@ -8290,7 +8290,7 @@
         <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X52" t="s" s="2">
         <v>327</v>
@@ -8320,13 +8320,13 @@
         <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>78</v>
@@ -8357,10 +8357,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>78</v>
@@ -8435,13 +8435,13 @@
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>78</v>
@@ -8475,7 +8475,7 @@
         <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
@@ -8487,7 +8487,7 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>242</v>
@@ -8550,7 +8550,7 @@
         <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8602,16 +8602,16 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8673,7 +8673,7 @@
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>78</v>
@@ -8713,13 +8713,13 @@
         <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>251</v>
@@ -8728,10 +8728,10 @@
         <v>252</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>78</v>
@@ -8792,13 +8792,13 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
@@ -8826,7 +8826,7 @@
         <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>78</v>
@@ -8838,7 +8838,7 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>339</v>
@@ -8905,13 +8905,13 @@
         <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>78</v>
@@ -8945,7 +8945,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>78</v>
@@ -8957,7 +8957,7 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>347</v>
@@ -8992,7 +8992,7 @@
         <v>78</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X58" t="s" s="2">
         <v>350</v>
@@ -9022,13 +9022,13 @@
         <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>78</v>
@@ -9109,7 +9109,7 @@
         <v>78</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X59" t="s" s="2">
         <v>218</v>
@@ -9145,7 +9145,7 @@
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
@@ -9178,10 +9178,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>78</v>
@@ -9257,7 +9257,7 @@
         <v>226</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9266,7 +9266,7 @@
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>235</v>
@@ -9300,7 +9300,7 @@
         <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
@@ -9312,7 +9312,7 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>242</v>
@@ -9375,7 +9375,7 @@
         <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>78</v>
@@ -9408,7 +9408,7 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9427,16 +9427,16 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9498,7 +9498,7 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>78</v>
@@ -9538,13 +9538,13 @@
         <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>251</v>
@@ -9553,10 +9553,10 @@
         <v>252</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>78</v>
@@ -9617,13 +9617,13 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>78</v>
@@ -9648,10 +9648,10 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>78</v>
@@ -9696,7 +9696,7 @@
         <v>78</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X64" t="s" s="2">
         <v>257</v>
@@ -9726,13 +9726,13 @@
         <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>259</v>
@@ -9851,7 +9851,7 @@
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>78</v>
@@ -9882,19 +9882,19 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>276</v>
@@ -9964,13 +9964,13 @@
         <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>281</v>
@@ -10004,7 +10004,7 @@
         <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>78</v>
@@ -10016,7 +10016,7 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>287</v>
@@ -10081,13 +10081,13 @@
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>78</v>
@@ -10121,7 +10121,7 @@
         <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>78</v>
@@ -10133,7 +10133,7 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>293</v>
@@ -10198,13 +10198,13 @@
         <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>78</v>
@@ -10235,19 +10235,19 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>299</v>
@@ -10314,16 +10314,16 @@
         <v>298</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>78</v>
@@ -10357,7 +10357,7 @@
         <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>78</v>
@@ -10432,13 +10432,13 @@
         <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>310</v>
@@ -10484,7 +10484,7 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>316</v>
@@ -10557,7 +10557,7 @@
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>78</v>
@@ -10603,7 +10603,7 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>324</v>
@@ -10638,7 +10638,7 @@
         <v>78</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X72" t="s" s="2">
         <v>327</v>
@@ -10668,13 +10668,13 @@
         <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>78</v>
@@ -10705,10 +10705,10 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>78</v>
@@ -10783,13 +10783,13 @@
         <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>78</v>
@@ -10823,7 +10823,7 @@
         <v>79</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>78</v>
@@ -10835,7 +10835,7 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>242</v>
@@ -10898,7 +10898,7 @@
         <v>79</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>78</v>
@@ -10931,7 +10931,7 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10950,16 +10950,16 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -11021,7 +11021,7 @@
         <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>78</v>
@@ -11061,13 +11061,13 @@
         <v>78</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>251</v>
@@ -11076,10 +11076,10 @@
         <v>252</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>78</v>
@@ -11140,13 +11140,13 @@
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
@@ -11174,7 +11174,7 @@
         <v>79</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>78</v>
@@ -11186,7 +11186,7 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>339</v>
@@ -11253,13 +11253,13 @@
         <v>79</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>78</v>
@@ -11293,7 +11293,7 @@
         <v>79</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>78</v>
@@ -11305,7 +11305,7 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>347</v>
@@ -11340,7 +11340,7 @@
         <v>78</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X78" t="s" s="2">
         <v>350</v>
@@ -11370,13 +11370,13 @@
         <v>79</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>78</v>
@@ -11457,7 +11457,7 @@
         <v>78</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X79" t="s" s="2">
         <v>218</v>
@@ -11493,7 +11493,7 @@
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>78</v>
@@ -11529,7 +11529,7 @@
         <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>78</v>
@@ -11605,7 +11605,7 @@
         <v>226</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11614,7 +11614,7 @@
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>235</v>
@@ -11648,7 +11648,7 @@
         <v>79</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>78</v>
@@ -11660,7 +11660,7 @@
         <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>242</v>
@@ -11723,7 +11723,7 @@
         <v>79</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>78</v>
@@ -11756,7 +11756,7 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11775,16 +11775,16 @@
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11846,7 +11846,7 @@
         <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>78</v>
@@ -11886,13 +11886,13 @@
         <v>78</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>251</v>
@@ -11901,10 +11901,10 @@
         <v>252</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>78</v>
@@ -11965,13 +11965,13 @@
         <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>78</v>
@@ -11996,10 +11996,10 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>78</v>
@@ -12044,7 +12044,7 @@
         <v>78</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X84" t="s" s="2">
         <v>257</v>
@@ -12074,13 +12074,13 @@
         <v>79</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>259</v>
@@ -12117,7 +12117,7 @@
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>78</v>
@@ -12199,7 +12199,7 @@
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>78</v>
@@ -12230,19 +12230,19 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I86" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>276</v>
@@ -12312,13 +12312,13 @@
         <v>79</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>281</v>
@@ -12352,7 +12352,7 @@
         <v>79</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>78</v>
@@ -12364,7 +12364,7 @@
         <v>78</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>287</v>
@@ -12429,13 +12429,13 @@
         <v>79</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>78</v>
@@ -12469,11 +12469,11 @@
         <v>79</v>
       </c>
       <c r="F88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G88" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G88" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H88" t="s" s="2">
         <v>78</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>78</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>293</v>
@@ -12546,13 +12546,13 @@
         <v>79</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>78</v>
@@ -12583,19 +12583,19 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I89" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>299</v>
@@ -12662,16 +12662,16 @@
         <v>298</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>78</v>
@@ -12705,7 +12705,7 @@
         <v>79</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>78</v>
@@ -12780,13 +12780,13 @@
         <v>79</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>310</v>
@@ -12832,7 +12832,7 @@
         <v>78</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>316</v>
@@ -12905,7 +12905,7 @@
         <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>78</v>
@@ -12951,7 +12951,7 @@
         <v>78</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>324</v>
@@ -12986,7 +12986,7 @@
         <v>78</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X92" t="s" s="2">
         <v>327</v>
@@ -13016,13 +13016,13 @@
         <v>79</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>78</v>
@@ -13131,13 +13131,13 @@
         <v>79</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>78</v>
@@ -13171,7 +13171,7 @@
         <v>79</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>78</v>
@@ -13183,7 +13183,7 @@
         <v>78</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>242</v>
@@ -13246,7 +13246,7 @@
         <v>79</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>78</v>
@@ -13279,7 +13279,7 @@
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -13298,16 +13298,16 @@
         <v>78</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13369,7 +13369,7 @@
         <v>78</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>78</v>
@@ -13409,13 +13409,13 @@
         <v>78</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>251</v>
@@ -13424,10 +13424,10 @@
         <v>252</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>78</v>
@@ -13488,13 +13488,13 @@
         <v>78</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>78</v>
@@ -13522,7 +13522,7 @@
         <v>79</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>78</v>
@@ -13534,7 +13534,7 @@
         <v>78</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>339</v>
@@ -13601,13 +13601,13 @@
         <v>79</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>78</v>
@@ -13641,7 +13641,7 @@
         <v>79</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>78</v>
@@ -13653,7 +13653,7 @@
         <v>78</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>347</v>
@@ -13688,7 +13688,7 @@
         <v>78</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X98" t="s" s="2">
         <v>350</v>
@@ -13718,13 +13718,13 @@
         <v>79</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>78</v>
@@ -13761,7 +13761,7 @@
         <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>78</v>
@@ -13805,7 +13805,7 @@
         <v>78</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X99" t="s" s="2">
         <v>218</v>
@@ -13841,7 +13841,7 @@
         <v>78</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>78</v>
@@ -13872,13 +13872,13 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G100" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>78</v>
@@ -13951,16 +13951,16 @@
         <v>366</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>78</v>
@@ -13994,7 +13994,7 @@
         <v>79</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>78</v>
@@ -14006,7 +14006,7 @@
         <v>78</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>242</v>
@@ -14069,7 +14069,7 @@
         <v>79</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>78</v>
@@ -14102,7 +14102,7 @@
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -14121,16 +14121,16 @@
         <v>78</v>
       </c>
       <c r="J102" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K102" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L102" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -14192,7 +14192,7 @@
         <v>78</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>78</v>
@@ -14232,13 +14232,13 @@
         <v>78</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K103" t="s" s="2">
         <v>251</v>
@@ -14247,10 +14247,10 @@
         <v>252</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>78</v>
@@ -14311,13 +14311,13 @@
         <v>78</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>78</v>
@@ -14345,7 +14345,7 @@
         <v>79</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>78</v>
@@ -14357,7 +14357,7 @@
         <v>78</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>378</v>
@@ -14422,13 +14422,13 @@
         <v>79</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>78</v>
@@ -14459,19 +14459,19 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I105" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J105" t="s" s="2">
         <v>276</v>
@@ -14536,16 +14536,16 @@
         <v>383</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>78</v>
@@ -14591,7 +14591,7 @@
         <v>78</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>390</v>
@@ -14626,7 +14626,7 @@
         <v>78</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X106" t="s" s="2">
         <v>393</v>
@@ -14662,7 +14662,7 @@
         <v>78</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>78</v>
@@ -14693,7 +14693,7 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>80</v>
@@ -14764,7 +14764,7 @@
         <v>78</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE107" t="s" s="2">
         <v>397</v>
@@ -14791,7 +14791,7 @@
         <v>405</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>406</v>
@@ -14813,7 +14813,7 @@
         <v>79</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>78</v>
@@ -14825,7 +14825,7 @@
         <v>78</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>242</v>
@@ -14888,7 +14888,7 @@
         <v>79</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>78</v>
@@ -14921,7 +14921,7 @@
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -14940,16 +14940,16 @@
         <v>78</v>
       </c>
       <c r="J109" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K109" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L109" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -15011,7 +15011,7 @@
         <v>78</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>78</v>
@@ -15051,13 +15051,13 @@
         <v>78</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>251</v>
@@ -15066,10 +15066,10 @@
         <v>252</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>78</v>
@@ -15130,13 +15130,13 @@
         <v>78</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>78</v>
@@ -15164,16 +15164,16 @@
         <v>79</v>
       </c>
       <c r="F111" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I111" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J111" t="s" s="2">
         <v>412</v>
@@ -15239,13 +15239,13 @@
         <v>79</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>78</v>
@@ -15257,7 +15257,7 @@
         <v>415</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>78</v>
@@ -15279,7 +15279,7 @@
         <v>79</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>78</v>
@@ -15291,7 +15291,7 @@
         <v>78</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K112" t="s" s="2">
         <v>418</v>
@@ -15328,7 +15328,7 @@
         <v>78</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X112" t="s" s="2">
         <v>422</v>
@@ -15358,13 +15358,13 @@
         <v>79</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>78</v>
@@ -15376,7 +15376,7 @@
         <v>425</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>426</v>
@@ -15398,7 +15398,7 @@
         <v>79</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>78</v>
@@ -15410,7 +15410,7 @@
         <v>78</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>429</v>
@@ -15445,7 +15445,7 @@
         <v>78</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X113" t="s" s="2">
         <v>432</v>
@@ -15475,13 +15475,13 @@
         <v>79</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>78</v>
@@ -15515,7 +15515,7 @@
         <v>79</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>78</v>
@@ -15527,7 +15527,7 @@
         <v>78</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>439</v>
@@ -15564,7 +15564,7 @@
         <v>78</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X114" t="s" s="2">
         <v>440</v>
@@ -15594,13 +15594,13 @@
         <v>79</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>78</v>
@@ -15646,7 +15646,7 @@
         <v>78</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>448</v>
@@ -15683,7 +15683,7 @@
         <v>78</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X115" t="s" s="2">
         <v>452</v>
@@ -15719,7 +15719,7 @@
         <v>78</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>78</v>
@@ -15753,19 +15753,19 @@
         <v>79</v>
       </c>
       <c r="F116" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I116" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J116" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>457</v>
@@ -15832,13 +15832,13 @@
         <v>79</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>78</v>
@@ -15872,7 +15872,7 @@
         <v>79</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>78</v>
@@ -15884,7 +15884,7 @@
         <v>78</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>466</v>
@@ -15949,13 +15949,13 @@
         <v>79</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>78</v>
@@ -15989,16 +15989,16 @@
         <v>79</v>
       </c>
       <c r="F118" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I118" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J118" t="s" s="2">
         <v>471</v>
@@ -16068,13 +16068,13 @@
         <v>79</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>78</v>
@@ -16191,7 +16191,7 @@
         <v>78</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>78</v>
@@ -16225,7 +16225,7 @@
         <v>79</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>78</v>
@@ -16237,7 +16237,7 @@
         <v>78</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>242</v>
@@ -16300,7 +16300,7 @@
         <v>79</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>78</v>
@@ -16333,7 +16333,7 @@
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -16352,16 +16352,16 @@
         <v>78</v>
       </c>
       <c r="J121" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K121" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L121" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
@@ -16423,7 +16423,7 @@
         <v>78</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>78</v>
@@ -16463,13 +16463,13 @@
         <v>78</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K122" t="s" s="2">
         <v>251</v>
@@ -16478,10 +16478,10 @@
         <v>252</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>78</v>
@@ -16542,13 +16542,13 @@
         <v>78</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>78</v>
@@ -16573,10 +16573,10 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>78</v>
@@ -16588,7 +16588,7 @@
         <v>78</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>488</v>
@@ -16648,16 +16648,16 @@
         <v>487</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>78</v>
@@ -16688,10 +16688,10 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>78</v>
@@ -16767,16 +16767,16 @@
         <v>491</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>78</v>
@@ -16812,7 +16812,7 @@
         <v>79</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>78</v>
@@ -16909,7 +16909,7 @@
         <v>405</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>406</v>
@@ -16931,7 +16931,7 @@
         <v>79</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>78</v>
@@ -16943,7 +16943,7 @@
         <v>78</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K126" t="s" s="2">
         <v>242</v>
@@ -17006,7 +17006,7 @@
         <v>79</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>78</v>
@@ -17039,7 +17039,7 @@
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17058,16 +17058,16 @@
         <v>78</v>
       </c>
       <c r="J127" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K127" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L127" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -17129,7 +17129,7 @@
         <v>78</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>78</v>
@@ -17169,13 +17169,13 @@
         <v>78</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K128" t="s" s="2">
         <v>251</v>
@@ -17184,10 +17184,10 @@
         <v>252</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>78</v>
@@ -17248,13 +17248,13 @@
         <v>78</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>78</v>
@@ -17282,16 +17282,16 @@
         <v>79</v>
       </c>
       <c r="F129" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I129" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J129" t="s" s="2">
         <v>412</v>
@@ -17357,13 +17357,13 @@
         <v>79</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>78</v>
@@ -17375,7 +17375,7 @@
         <v>415</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>78</v>
@@ -17397,7 +17397,7 @@
         <v>79</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>78</v>
@@ -17409,7 +17409,7 @@
         <v>78</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K130" t="s" s="2">
         <v>242</v>
@@ -17472,7 +17472,7 @@
         <v>79</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>78</v>
@@ -17505,7 +17505,7 @@
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -17524,16 +17524,16 @@
         <v>78</v>
       </c>
       <c r="J131" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K131" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L131" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -17580,7 +17580,7 @@
         <v>78</v>
       </c>
       <c r="AD131" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE131" t="s" s="2">
         <v>248</v>
@@ -17595,7 +17595,7 @@
         <v>78</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>78</v>
@@ -17629,19 +17629,19 @@
         <v>79</v>
       </c>
       <c r="F132" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I132" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J132" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K132" t="s" s="2">
         <v>505</v>
@@ -17706,19 +17706,19 @@
         <v>79</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>509</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>78</v>
@@ -17746,19 +17746,19 @@
         <v>79</v>
       </c>
       <c r="F133" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I133" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J133" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K133" t="s" s="2">
         <v>511</v>
@@ -17793,7 +17793,7 @@
         <v>78</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X133" t="s" s="2">
         <v>514</v>
@@ -17823,19 +17823,19 @@
         <v>79</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>78</v>
@@ -17863,16 +17863,16 @@
         <v>79</v>
       </c>
       <c r="F134" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I134" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J134" t="s" s="2">
         <v>518</v>
@@ -17940,13 +17940,13 @@
         <v>79</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>78</v>
@@ -17980,7 +17980,7 @@
         <v>79</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>78</v>
@@ -17992,7 +17992,7 @@
         <v>78</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K135" t="s" s="2">
         <v>242</v>
@@ -18055,7 +18055,7 @@
         <v>79</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>78</v>
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -18107,16 +18107,16 @@
         <v>78</v>
       </c>
       <c r="J136" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K136" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L136" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
@@ -18163,7 +18163,7 @@
         <v>78</v>
       </c>
       <c r="AD136" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE136" t="s" s="2">
         <v>248</v>
@@ -18178,7 +18178,7 @@
         <v>78</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>78</v>
@@ -18212,19 +18212,19 @@
         <v>79</v>
       </c>
       <c r="F137" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H137" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I137" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>527</v>
@@ -18261,7 +18261,7 @@
         <v>78</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X137" t="s" s="2">
         <v>531</v>
@@ -18291,13 +18291,13 @@
         <v>79</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>78</v>
@@ -18331,16 +18331,16 @@
         <v>79</v>
       </c>
       <c r="F138" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I138" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I138" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J138" t="s" s="2">
         <v>214</v>
@@ -18380,7 +18380,7 @@
         <v>78</v>
       </c>
       <c r="W138" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X138" t="s" s="2">
         <v>540</v>
@@ -18410,13 +18410,13 @@
         <v>79</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>78</v>
@@ -18450,19 +18450,19 @@
         <v>79</v>
       </c>
       <c r="F139" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I139" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J139" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K139" t="s" s="2">
         <v>544</v>
@@ -18529,13 +18529,13 @@
         <v>79</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>78</v>
@@ -18566,22 +18566,22 @@
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F140" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I140" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F140" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J140" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>552</v>
@@ -18646,13 +18646,13 @@
         <v>79</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>78</v>
@@ -18686,19 +18686,19 @@
         <v>79</v>
       </c>
       <c r="F141" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I141" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J141" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>559</v>
@@ -18761,13 +18761,13 @@
         <v>79</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>78</v>
@@ -18801,16 +18801,16 @@
         <v>79</v>
       </c>
       <c r="F142" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I142" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J142" t="s" s="2">
         <v>564</v>
@@ -18878,13 +18878,13 @@
         <v>79</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>78</v>
@@ -18918,19 +18918,19 @@
         <v>79</v>
       </c>
       <c r="F143" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I143" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J143" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K143" t="s" s="2">
         <v>571</v>
@@ -18995,19 +18995,19 @@
         <v>79</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>78</v>
@@ -19032,10 +19032,10 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>78</v>
@@ -19047,7 +19047,7 @@
         <v>78</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K144" t="s" s="2">
         <v>418</v>
@@ -19084,7 +19084,7 @@
         <v>78</v>
       </c>
       <c r="W144" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X144" t="s" s="2">
         <v>422</v>
@@ -19114,13 +19114,13 @@
         <v>79</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>78</v>
@@ -19132,7 +19132,7 @@
         <v>425</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>426</v>
@@ -19154,7 +19154,7 @@
         <v>79</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>78</v>
@@ -19166,7 +19166,7 @@
         <v>78</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K145" t="s" s="2">
         <v>429</v>
@@ -19201,7 +19201,7 @@
         <v>78</v>
       </c>
       <c r="W145" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X145" t="s" s="2">
         <v>432</v>
@@ -19231,13 +19231,13 @@
         <v>79</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>78</v>
@@ -19271,7 +19271,7 @@
         <v>79</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>78</v>
@@ -19283,7 +19283,7 @@
         <v>78</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K146" t="s" s="2">
         <v>439</v>
@@ -19320,7 +19320,7 @@
         <v>78</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X146" t="s" s="2">
         <v>440</v>
@@ -19350,13 +19350,13 @@
         <v>79</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>78</v>
@@ -19402,7 +19402,7 @@
         <v>78</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K147" t="s" s="2">
         <v>448</v>
@@ -19439,7 +19439,7 @@
         <v>78</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X147" t="s" s="2">
         <v>452</v>
@@ -19475,7 +19475,7 @@
         <v>78</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>78</v>
@@ -19509,19 +19509,19 @@
         <v>79</v>
       </c>
       <c r="F148" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I148" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I148" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J148" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>457</v>
@@ -19588,13 +19588,13 @@
         <v>79</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>78</v>
@@ -19628,7 +19628,7 @@
         <v>79</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>78</v>
@@ -19640,7 +19640,7 @@
         <v>78</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K149" t="s" s="2">
         <v>466</v>
@@ -19705,13 +19705,13 @@
         <v>79</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>78</v>
@@ -19745,16 +19745,16 @@
         <v>79</v>
       </c>
       <c r="F150" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I150" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J150" t="s" s="2">
         <v>471</v>
@@ -19824,13 +19824,13 @@
         <v>79</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>78</v>
@@ -19947,7 +19947,7 @@
         <v>78</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>78</v>
@@ -19981,7 +19981,7 @@
         <v>79</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>78</v>
@@ -19993,7 +19993,7 @@
         <v>78</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K152" t="s" s="2">
         <v>242</v>
@@ -20056,7 +20056,7 @@
         <v>79</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>78</v>
@@ -20089,7 +20089,7 @@
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20108,16 +20108,16 @@
         <v>78</v>
       </c>
       <c r="J153" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K153" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K153" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L153" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
@@ -20179,7 +20179,7 @@
         <v>78</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>78</v>
@@ -20219,13 +20219,13 @@
         <v>78</v>
       </c>
       <c r="H154" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K154" t="s" s="2">
         <v>251</v>
@@ -20234,10 +20234,10 @@
         <v>252</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>78</v>
@@ -20298,13 +20298,13 @@
         <v>78</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>78</v>
@@ -20329,10 +20329,10 @@
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>78</v>
@@ -20344,7 +20344,7 @@
         <v>78</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K155" t="s" s="2">
         <v>488</v>
@@ -20404,16 +20404,16 @@
         <v>487</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>78</v>
@@ -20444,10 +20444,10 @@
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>78</v>
@@ -20523,16 +20523,16 @@
         <v>491</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>78</v>
@@ -20565,10 +20565,10 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>78</v>
@@ -20665,7 +20665,7 @@
         <v>405</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>406</v>
@@ -20687,7 +20687,7 @@
         <v>79</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>78</v>
@@ -20699,7 +20699,7 @@
         <v>78</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K158" t="s" s="2">
         <v>242</v>
@@ -20762,7 +20762,7 @@
         <v>79</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>78</v>
@@ -20795,7 +20795,7 @@
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -20814,16 +20814,16 @@
         <v>78</v>
       </c>
       <c r="J159" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K159" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K159" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L159" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
@@ -20885,7 +20885,7 @@
         <v>78</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>78</v>
@@ -20925,13 +20925,13 @@
         <v>78</v>
       </c>
       <c r="H160" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I160" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K160" t="s" s="2">
         <v>251</v>
@@ -20940,10 +20940,10 @@
         <v>252</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>78</v>
@@ -21004,13 +21004,13 @@
         <v>78</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>78</v>
@@ -21035,19 +21035,19 @@
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F161" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G161" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H161" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I161" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F161" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I161" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J161" t="s" s="2">
         <v>577</v>
@@ -21113,13 +21113,13 @@
         <v>79</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>78</v>
@@ -21131,7 +21131,7 @@
         <v>415</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>78</v>
@@ -21150,10 +21150,10 @@
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>78</v>
@@ -21165,7 +21165,7 @@
         <v>78</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K162" t="s" s="2">
         <v>418</v>
@@ -21202,7 +21202,7 @@
         <v>78</v>
       </c>
       <c r="W162" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X162" t="s" s="2">
         <v>422</v>
@@ -21232,13 +21232,13 @@
         <v>79</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>78</v>
@@ -21250,7 +21250,7 @@
         <v>425</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>426</v>
@@ -21272,7 +21272,7 @@
         <v>79</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>78</v>
@@ -21284,7 +21284,7 @@
         <v>78</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K163" t="s" s="2">
         <v>429</v>
@@ -21319,7 +21319,7 @@
         <v>78</v>
       </c>
       <c r="W163" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X163" t="s" s="2">
         <v>432</v>
@@ -21349,13 +21349,13 @@
         <v>79</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>78</v>
@@ -21401,7 +21401,7 @@
         <v>78</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K164" t="s" s="2">
         <v>439</v>
@@ -21438,7 +21438,7 @@
         <v>78</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X164" t="s" s="2">
         <v>440</v>
@@ -21468,13 +21468,13 @@
         <v>79</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>78</v>
@@ -21520,7 +21520,7 @@
         <v>78</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K165" t="s" s="2">
         <v>580</v>
@@ -21557,7 +21557,7 @@
         <v>78</v>
       </c>
       <c r="W165" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X165" t="s" s="2">
         <v>452</v>
@@ -21593,7 +21593,7 @@
         <v>78</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>78</v>
@@ -21627,19 +21627,19 @@
         <v>79</v>
       </c>
       <c r="F166" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G166" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H166" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I166" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I166" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J166" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K166" t="s" s="2">
         <v>457</v>
@@ -21706,13 +21706,13 @@
         <v>79</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>78</v>
@@ -21746,7 +21746,7 @@
         <v>79</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>78</v>
@@ -21758,7 +21758,7 @@
         <v>78</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K167" t="s" s="2">
         <v>466</v>
@@ -21823,13 +21823,13 @@
         <v>79</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>78</v>
@@ -21872,7 +21872,7 @@
         <v>78</v>
       </c>
       <c r="I168" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J168" t="s" s="2">
         <v>471</v>
@@ -21942,13 +21942,13 @@
         <v>79</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>78</v>
@@ -22065,7 +22065,7 @@
         <v>78</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>78</v>
@@ -22099,7 +22099,7 @@
         <v>79</v>
       </c>
       <c r="F170" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>78</v>
@@ -22111,7 +22111,7 @@
         <v>78</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K170" t="s" s="2">
         <v>242</v>
@@ -22174,7 +22174,7 @@
         <v>79</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>78</v>
@@ -22207,7 +22207,7 @@
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -22226,16 +22226,16 @@
         <v>78</v>
       </c>
       <c r="J171" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K171" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K171" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L171" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
@@ -22297,7 +22297,7 @@
         <v>78</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>78</v>
@@ -22337,13 +22337,13 @@
         <v>78</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I172" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K172" t="s" s="2">
         <v>251</v>
@@ -22352,10 +22352,10 @@
         <v>252</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>78</v>
@@ -22416,13 +22416,13 @@
         <v>78</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL172" t="s" s="2">
         <v>78</v>
@@ -22447,10 +22447,10 @@
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F173" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G173" t="s" s="2">
         <v>78</v>
@@ -22462,7 +22462,7 @@
         <v>78</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K173" t="s" s="2">
         <v>488</v>
@@ -22522,16 +22522,16 @@
         <v>487</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ173" t="s" s="2">
         <v>78</v>
@@ -22562,10 +22562,10 @@
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>78</v>
@@ -22641,16 +22641,16 @@
         <v>491</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>78</v>
